--- a/lib/templates/foreign_seed_template.xlsx
+++ b/lib/templates/foreign_seed_template.xlsx
@@ -20,7 +20,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+  <si>
+    <t xml:space="preserve">Seed Id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seed Status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accession number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Collection_rep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crop name</t>
+  </si>
   <si>
     <t xml:space="preserve">Family</t>
   </si>
@@ -31,7 +49,7 @@
     <t xml:space="preserve">Species</t>
   </si>
   <si>
-    <t xml:space="preserve">Sub texa</t>
+    <t xml:space="preserve">Sub_texa</t>
   </si>
   <si>
     <t xml:space="preserve">Material type</t>
@@ -40,16 +58,13 @@
     <t xml:space="preserve">Classification</t>
   </si>
   <si>
-    <t xml:space="preserve">Resistant </t>
+    <t xml:space="preserve">Resistant</t>
   </si>
   <si>
     <t xml:space="preserve">Susceptible</t>
   </si>
   <si>
-    <t xml:space="preserve">Crop name </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Repatriation number </t>
+    <t xml:space="preserve">Repatriation number</t>
   </si>
   <si>
     <t xml:space="preserve">Repatriation date</t>
@@ -64,7 +79,7 @@
     <t xml:space="preserve">Condition</t>
   </si>
   <si>
-    <t xml:space="preserve">Donor Accession</t>
+    <t xml:space="preserve">Donor accession</t>
   </si>
   <si>
     <t xml:space="preserve">Donor name</t>
@@ -73,13 +88,13 @@
     <t xml:space="preserve">Country</t>
   </si>
   <si>
-    <t xml:space="preserve">Organisation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Web url</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Email id</t>
+    <t xml:space="preserve">Organization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Web URL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Email Id</t>
   </si>
   <si>
     <t xml:space="preserve">Phone</t>
@@ -88,18 +103,95 @@
     <t xml:space="preserve">Fax</t>
   </si>
   <si>
-    <t xml:space="preserve">Remarks </t>
+    <t xml:space="preserve">Remarks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Germination rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Germination date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moisture content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moisture test date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test seed stored date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test details remarks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Packaging Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Germination  weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Germination packets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regeneration weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regeneration packets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rest weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rest packets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Base location 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Base location 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Active collection  weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Active collection packets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Active collection location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Characterization weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Characterization packets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Characterization location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duplicate weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duplicate packets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duplicate location 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duplicate location 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transfer Date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="mm/dd/yy"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -123,10 +215,14 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -171,33 +267,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -217,150 +297,190 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AL3"/>
+  <dimension ref="A1:BH1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AB2" activeCellId="0" sqref="AB2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="19.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="15.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="19.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="10.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="15.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="19.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="23" style="0" width="14.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="16.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="15.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="15.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="28" style="0" width="13.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="13.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="13.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="15.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="17.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="13.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="17.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="0" width="13.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="0" width="13.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="0" width="12.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="0" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="0" width="14.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="0" width="13.89"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="0" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="0" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="0" t="s">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="0" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="0" t="s">
+      <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K2" s="1"/>
-      <c r="T2" s="2"/>
-      <c r="AC2" s="1"/>
-    </row>
-    <row r="3" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="4"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="3"/>
-      <c r="AB3" s="3"/>
-      <c r="AC3" s="4"/>
-      <c r="AD3" s="3"/>
-      <c r="AE3" s="3"/>
-      <c r="AF3" s="3"/>
-      <c r="AG3" s="3"/>
-      <c r="AH3" s="3"/>
-      <c r="AI3" s="3"/>
-      <c r="AJ3" s="3"/>
-      <c r="AK3" s="3"/>
-      <c r="AL3" s="3"/>
+      <c r="X1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" s="1"/>
+      <c r="BD1" s="1"/>
+      <c r="BE1" s="1"/>
+      <c r="BF1" s="1"/>
+      <c r="BG1" s="1"/>
+      <c r="BH1" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
